--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1270339.95635957</v>
+        <v>1302351.922593807</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.0964539</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178671</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7932310.531021686</v>
+        <v>8409081.49461977</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>260.0442912848939</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>91.76883364627966</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.82316476047037</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507632</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -896,13 +898,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>30.38394329578604</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -911,7 +913,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>147.743488744574</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>39.32086876456468</v>
+        <v>214.9288021876725</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>55.00037171582964</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1148,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>161.725711161302</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>151.532506479744</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>45.27744901021131</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.27852460127782</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1619,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>21.70719544518489</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1673,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>39.64108301376439</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.36683641495334</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1904,10 +1906,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>18.68597003888456</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>183.5236380974013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2239,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>93.45986779485281</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>132.007166708046</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,19 +2326,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>372.3536886992977</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260363</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>42.43741174507654</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2536,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>220.9263373332098</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.054132580644</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256822</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.09751710528867</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2719,19 +2721,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>33.74095660611479</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2959,16 +2961,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>106.9706214097034</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>205.293418382671</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.6942298771793</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>4.031544062375542</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>369.2659961340943</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3436,7 +3438,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.68688746169129</v>
+        <v>220.2647746254037</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3503,25 +3505,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>373.7360322130632</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>226.2104525183321</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>261.222441356195</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>39.64108301376439</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3901,10 +3903,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>153.0251390105127</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>1.210602693497651</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>157.4229911737221</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>128.7560630900389</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4153,7 +4155,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>13.20009647662846</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1788.940053393376</v>
+        <v>1859.867021802876</v>
       </c>
       <c r="C2" t="n">
-        <v>1378.815462706646</v>
+        <v>1597.196020505003</v>
       </c>
       <c r="D2" t="n">
-        <v>974.351532799707</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E2" t="n">
-        <v>560.0113173166037</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F2" t="n">
-        <v>467.315525754705</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1309.338142568815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.338142568815</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1435.413521245312</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2079.044377662417</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>2579.524527713341</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>2195.764226848509</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X2" t="n">
-        <v>1795.120829017462</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1795.120829017462</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>1338.679142791659</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1999.767314710947</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>2724.78443009922</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N3" t="n">
-        <v>2724.78443009922</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O3" t="n">
-        <v>2724.78443009922</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>2929.36208237686</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.0860738945912</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C4" t="n">
-        <v>378.9927014563077</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>219.4980567792177</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1305.187990814512</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V4" t="n">
-        <v>1305.187990814512</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W4" t="n">
-        <v>1026.118326323386</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X4" t="n">
-        <v>787.7744641830693</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y4" t="n">
-        <v>563.038765571834</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1737.840935004986</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C5" t="n">
-        <v>1707.15008319106</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D5" t="n">
-        <v>1302.686153284121</v>
+        <v>1192.732090598063</v>
       </c>
       <c r="E5" t="n">
-        <v>888.3459378010175</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F5" t="n">
-        <v>467.315525754705</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>596.7467427565767</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M5" t="n">
-        <v>669.8397601674739</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
-        <v>1394.856875555747</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>2038.487731972852</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2567.644429892003</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2929.36208237686</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>2545.601781512029</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X5" t="n">
-        <v>2144.958383680981</v>
+        <v>1205.42057873501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.021710629071</v>
+        <v>1205.42057873501</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>58.5872416475372</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>114.3963390753401</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="M6" t="n">
-        <v>114.3963390753401</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N6" t="n">
-        <v>839.4134544636129</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O6" t="n">
-        <v>1543.370545009507</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>706.0331050319106</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C7" t="n">
-        <v>534.9397325936271</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>375.4450879165371</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>375.4450879165371</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>375.4450879165371</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>208.1946968420806</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1502.713419943787</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1263.164680920489</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1263.164680920489</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1223.446631663353</v>
+        <v>560.0528091390199</v>
       </c>
       <c r="W7" t="n">
-        <v>944.3769671722273</v>
+        <v>560.0528091390199</v>
       </c>
       <c r="X7" t="n">
-        <v>706.0331050319106</v>
+        <v>560.0528091390199</v>
       </c>
       <c r="Y7" t="n">
-        <v>706.0331050319106</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1768.366674996941</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.242084310211</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.686153284121</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>888.3459378010175</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>467.315525754705</v>
+        <v>892.0062696297456</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>483.2779855225778</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>172.3694881502957</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>340.2031969351232</v>
       </c>
       <c r="K8" t="n">
-        <v>850.932214224331</v>
+        <v>878.3626980441627</v>
       </c>
       <c r="L8" t="n">
-        <v>850.932214224331</v>
+        <v>1590.954097856401</v>
       </c>
       <c r="M8" t="n">
-        <v>1575.949329612604</v>
+        <v>2367.272688848155</v>
       </c>
       <c r="N8" t="n">
-        <v>2300.966445000877</v>
+        <v>3120.453705486773</v>
       </c>
       <c r="O8" t="n">
-        <v>2929.36208237686</v>
+        <v>3764.084561903878</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3939.168620883587</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4260.329627678879</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="U8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="V8" t="n">
-        <v>2579.524527713341</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>2579.524527713341</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>2579.524527713341</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2178.587854661431</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471287</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>278.8305830300021</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>734.6368392953009</v>
       </c>
       <c r="L9" t="n">
-        <v>839.4134544636129</v>
+        <v>1395.725011214589</v>
       </c>
       <c r="M9" t="n">
-        <v>839.4134544636129</v>
+        <v>1753.102937271256</v>
       </c>
       <c r="N9" t="n">
-        <v>839.4134544636129</v>
+        <v>1753.102937271256</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>1753.102937271256</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>1753.102937271256</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>390.4687586114026</v>
+        <v>909.3980746782881</v>
       </c>
       <c r="C10" t="n">
-        <v>390.4687586114026</v>
+        <v>738.3047022400046</v>
       </c>
       <c r="D10" t="n">
-        <v>390.4687586114026</v>
+        <v>578.8100575629147</v>
       </c>
       <c r="E10" t="n">
-        <v>390.4687586114026</v>
+        <v>417.8992424312342</v>
       </c>
       <c r="F10" t="n">
-        <v>225.8376327219938</v>
+        <v>253.2681165418255</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725794</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948174</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.549702874878</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.8137593153713</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709622</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036096</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1401.594370148297</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1401.594370148297</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1355.859573168286</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1081.973828107808</v>
+        <v>1341.530877027741</v>
       </c>
       <c r="W10" t="n">
-        <v>802.9041636166822</v>
+        <v>1062.461212536615</v>
       </c>
       <c r="X10" t="n">
-        <v>802.9041636166822</v>
+        <v>1062.461212536615</v>
       </c>
       <c r="Y10" t="n">
-        <v>578.1684650054469</v>
+        <v>1062.461212536615</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>889.7422443805796</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>479.6176536938497</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>479.6176536938497</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>479.6176536938497</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1496.195756848048</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1496.195756848048</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2139.826613265153</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2668.983311184305</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2835.141350456377</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2835.141350456377</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U11" t="n">
-        <v>2835.141350456377</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V11" t="n">
-        <v>2485.303795792858</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W11" t="n">
-        <v>2101.543494928027</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>1700.900097096979</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>1299.963424045069</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>275.6382226748781</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>275.6382226748781</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1000.655338063151</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.672453451424</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.672453451424</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P12" t="n">
-        <v>1725.672453451424</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2075.516918135407</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.810743970851</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1302.686153284121</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1302.686153284121</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>888.3459378010175</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>848.1227107592442</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>1560.714110571482</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2285.731225959755</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2285.731225959755</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2907.435622331219</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2523.675321466387</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2123.03192363534</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2123.03192363534</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>719.6754135668255</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>719.6754135668255</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N15" t="n">
-        <v>839.4134544636129</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1543.370545009507</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>444.1936930566062</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>133.2851956843242</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5528,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4590.097170980682</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4367.890686927541</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4110.830195187051</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="D19" t="n">
         <v>851.989530876386</v>
@@ -5701,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W19" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.012952997039</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y19" t="n">
-        <v>1370.277254385804</v>
+        <v>870.8642480873805</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2324.444211508952</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674172</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4269.84331758475</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>3920.005762921231</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W20" t="n">
-        <v>3536.245462056399</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X20" t="n">
-        <v>3135.602064225352</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y20" t="n">
-        <v>2734.665391173442</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3460.947194116427</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="C22" t="n">
-        <v>3460.947194116427</v>
+        <v>734.2273145261215</v>
       </c>
       <c r="D22" t="n">
-        <v>3460.947194116427</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E22" t="n">
-        <v>3300.036378984746</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F22" t="n">
-        <v>3300.036378984746</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W22" t="n">
-        <v>3460.947194116427</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X22" t="n">
-        <v>3460.947194116427</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y22" t="n">
-        <v>3460.947194116427</v>
+        <v>828.6312213896092</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>911.5343697921442</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J23" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6081,7 +6083,7 @@
         <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.652060380064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>4379.386737077264</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>4105.500992016786</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W25" t="n">
-        <v>3826.43132752566</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X25" t="n">
-        <v>3588.087465385343</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y25" t="n">
-        <v>3363.351766774108</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2144.727460069145</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
@@ -6309,13 +6311,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>573.4391700005397</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6418,16 +6420,16 @@
         <v>1537.369875986873</v>
       </c>
       <c r="V28" t="n">
-        <v>1263.484130926395</v>
+        <v>1503.288101637262</v>
       </c>
       <c r="W28" t="n">
-        <v>1263.484130926395</v>
+        <v>1224.218437146136</v>
       </c>
       <c r="X28" t="n">
-        <v>1263.484130926395</v>
+        <v>985.8745750058193</v>
       </c>
       <c r="Y28" t="n">
-        <v>1263.484130926395</v>
+        <v>761.138876394584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="30">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3732.335952894417</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>3561.242580456134</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>3401.747935779044</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>3240.837120647363</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>4383.115220040014</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>4144.771357899697</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y31" t="n">
-        <v>3920.035659288462</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6694,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6725,10 +6727,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U32" t="n">
         <v>4097.330235996674</v>
@@ -6792,7 +6794,7 @@
         <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>3734.463987328199</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>3563.370614889915</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>3563.370614889915</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>3563.370614889915</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>4146.899392333478</v>
       </c>
       <c r="V34" t="n">
-        <v>1339.844446857597</v>
+        <v>4146.899392333478</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.844446857597</v>
+        <v>4146.899392333478</v>
       </c>
       <c r="X34" t="n">
-        <v>1339.844446857597</v>
+        <v>4146.899392333478</v>
       </c>
       <c r="Y34" t="n">
-        <v>1339.844446857597</v>
+        <v>3922.163693722243</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6971,16 +6973,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>741.8628115185547</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N36" t="n">
-        <v>741.8628115185547</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.6240469015422</v>
+        <v>3788.915946046752</v>
       </c>
       <c r="C37" t="n">
-        <v>745.5306744632587</v>
+        <v>3617.822573608469</v>
       </c>
       <c r="D37" t="n">
-        <v>586.0360297861687</v>
+        <v>3458.327928931379</v>
       </c>
       <c r="E37" t="n">
-        <v>425.1252146544881</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="F37" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W37" t="n">
-        <v>1567.403314047138</v>
+        <v>4439.695213192348</v>
       </c>
       <c r="X37" t="n">
-        <v>1329.059451906822</v>
+        <v>4201.351351052032</v>
       </c>
       <c r="Y37" t="n">
-        <v>1104.323753295587</v>
+        <v>3976.615652440797</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2102.23772745581</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7175,49 +7177,49 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674161</v>
       </c>
       <c r="L38" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079654</v>
       </c>
       <c r="M38" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N38" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325239</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.697325272098</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.636833531608</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3697.799278868089</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3314.038978003257</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>2913.39558017221</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2512.4589071203</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7259,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3456.911758476788</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C40" t="n">
-        <v>3456.911758476788</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D40" t="n">
-        <v>3297.417113799698</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E40" t="n">
-        <v>3297.417113799698</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F40" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I40" t="n">
         <v>3132.785987910289</v>
@@ -7357,25 +7359,25 @@
         <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.520398086449</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T40" t="n">
-        <v>4390.520398086449</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U40" t="n">
-        <v>4390.520398086449</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="V40" t="n">
-        <v>4162.024991502275</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="W40" t="n">
-        <v>3882.955327011149</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="X40" t="n">
-        <v>3644.611464870833</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="Y40" t="n">
-        <v>3644.611464870833</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1145.516793112753</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C41" t="n">
-        <v>1145.516793112753</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D41" t="n">
-        <v>881.6557412378083</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E41" t="n">
-        <v>467.315525754705</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>444.1936930566062</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>133.2851956843242</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>771.1786414597752</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1496.195756848048</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2221.212872236321</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2864.843728653426</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2707.155598323719</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2707.155598323719</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2357.3180436602</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2357.3180436602</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>1956.674645829152</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y41" t="n">
-        <v>1555.737972777242</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>514.3934979128359</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>514.3934979128359</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>1239.410613301109</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1755.231972814054</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O42" t="n">
-        <v>1755.231972814054</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="P42" t="n">
-        <v>1755.231972814054</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1725.62740567966</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C43" t="n">
-        <v>1554.534033241377</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D43" t="n">
-        <v>1399.96318575601</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>1414.045735161221</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>1568.598062883459</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>1828.495163163519</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>2117.759219604013</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>2398.598001998263</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>2658.158612324737</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>2863.834052574349</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>2655.476337316382</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W43" t="n">
-        <v>2376.406672825256</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X43" t="n">
-        <v>2138.06281068494</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y43" t="n">
-        <v>1913.327112073704</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2118.497504881323</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1708.372914194593</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1303.908984287654</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>889.5687688045505</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>468.538356758238</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>59.81007265107019</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>588.4535011963059</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L44" t="n">
-        <v>588.4535011963059</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1313.470616584579</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2038.487731972852</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O44" t="n">
-        <v>2038.487731972852</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>4300.467232046282</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V44" t="n">
-        <v>2929.36208237686</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W44" t="n">
-        <v>2929.36208237686</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2528.718684545813</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2528.718684545813</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>251.4000992101705</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>976.4172145984433</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N45" t="n">
-        <v>1021.715362905529</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.672453451424</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.672453451424</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2075.516918135407</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>540.0762138059458</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>540.0762138059458</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>540.0762138059458</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>540.0762138059458</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>375.4450879165371</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>208.1946968420806</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1348.437399245089</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U46" t="n">
-        <v>1065.639251791214</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V46" t="n">
-        <v>791.7535067307356</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W46" t="n">
-        <v>778.4200759462624</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X46" t="n">
-        <v>540.0762138059458</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y46" t="n">
-        <v>540.0762138059458</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>220.261158106616</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>395.7562197346342</v>
       </c>
       <c r="P3" t="n">
-        <v>260.9037282125412</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731806</v>
       </c>
       <c r="M5" t="n">
-        <v>167.1215551751233</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>112.4873494954984</v>
+        <v>70.59911775623679</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8456,25 +8458,25 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>727.932843682332</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>270.501948108873</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8708,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>353.0426641896123</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0691979637476</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>558.8606699624394</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>629.8939630509471</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N15" t="n">
-        <v>174.140909451111</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9729,10 +9731,10 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>387.4455168657486</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9957,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10440,10 +10442,10 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>387.4455168657486</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10662,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>548.9835243030855</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10905,16 +10907,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11145,16 +11147,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>574.225069669452</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>230.3884483633763</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11297,19 +11299,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>367.6018321792923</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11373,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>98.94909875444313</v>
+        <v>388.1423516779259</v>
       </c>
       <c r="O45" t="n">
         <v>768.8192472281761</v>
@@ -11397,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.64973985256232</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>324.6319836716992</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>45.84716204233317</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.5614280388868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.2137281914345</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>222.4997066824612</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -24127,22 +24129,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>75.92257091904784</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>144.2718011381683</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>37.84312462897452</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>126.9450269688241</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>55.35263051300453</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.06483528720059</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>49.19646844041387</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.7251922248153</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>237.4059310037585</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>56.01419322081128</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>49.19646844041395</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.12847945292467</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.9386219169616</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25141,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>10.65670172208877</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25372,7 +25374,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>221.5920803845231</v>
+        <v>56.01419322081068</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>32.28731256679936</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -25606,16 +25608,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>44.93643509154111</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>139.1968492516751</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>45.84716204233317</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>4.8745592198064</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25843,7 +25845,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>306.5888097050615</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>222.499706682461</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>57.0666462400651</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>263.0788713695859</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>778225.8083231827</v>
+        <v>771598.2186936521</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>778225.8083231827</v>
+        <v>771598.2186936521</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>778225.8083231827</v>
+        <v>789032.8647970082</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546414.4532997726</v>
+        <v>710618.485181638</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>546414.4532997727</v>
+        <v>710618.4851816379</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710618.4851816382</v>
+        <v>710618.4851816379</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710618.4851816378</v>
+        <v>710618.4851816379</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710618.4851816383</v>
+        <v>710618.485181638</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710618.4851816379</v>
+        <v>710618.485181638</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710618.4851816379</v>
+        <v>710618.485181638</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>710618.485181638</v>
+        <v>710618.4851816382</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546414.4532997726</v>
+        <v>710618.4851816382</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546414.4532997727</v>
+        <v>710618.485181638</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811425</v>
+        <v>407205.9825811422</v>
       </c>
       <c r="C2" t="n">
         <v>407205.9825811423</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811423</v>
+        <v>407205.9825811426</v>
       </c>
       <c r="E2" t="n">
-        <v>278421.8964570255</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="F2" t="n">
-        <v>278421.8964570257</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="G2" t="n">
+        <v>362060.8344188674</v>
+      </c>
+      <c r="H2" t="n">
         <v>362060.8344188675</v>
-      </c>
-      <c r="H2" t="n">
-        <v>362060.8344188676</v>
       </c>
       <c r="I2" t="n">
         <v>362060.8344188675</v>
       </c>
       <c r="J2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188677</v>
       </c>
       <c r="K2" t="n">
         <v>362060.8344188675</v>
       </c>
       <c r="L2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="M2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="N2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="O2" t="n">
-        <v>278421.8964570256</v>
+        <v>362060.8344188676</v>
       </c>
       <c r="P2" t="n">
-        <v>278421.8964570256</v>
+        <v>362060.8344188674</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093387</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647531</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404713</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163397.5044008658</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
-        <v>163397.5044008658</v>
+        <v>193745.821255793</v>
       </c>
       <c r="D4" t="n">
-        <v>163397.5044008658</v>
+        <v>113911.0406229375</v>
       </c>
       <c r="E4" t="n">
-        <v>45788.35845401311</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="F4" t="n">
-        <v>45788.35845401311</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="G4" t="n">
-        <v>59647.11115782199</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="H4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="I4" t="n">
         <v>59647.11115782198</v>
@@ -26442,22 +26444,22 @@
         <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="M4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="N4" t="n">
         <v>59647.11115782198</v>
       </c>
-      <c r="N4" t="n">
-        <v>59647.11115782197</v>
-      </c>
       <c r="O4" t="n">
-        <v>45788.35845401311</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="P4" t="n">
-        <v>45788.35845401311</v>
+        <v>59647.11115782198</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520034</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79769.57775494675</v>
+        <v>-26864.41364626252</v>
       </c>
       <c r="C6" t="n">
-        <v>165654.5745281482</v>
+        <v>148091.0962468518</v>
       </c>
       <c r="D6" t="n">
-        <v>165654.5745281482</v>
+        <v>22466.40169293591</v>
       </c>
       <c r="E6" t="n">
-        <v>188107.2343508842</v>
+        <v>204579.5588352383</v>
       </c>
       <c r="F6" t="n">
-        <v>188107.2343508843</v>
+        <v>231548.5130161721</v>
       </c>
       <c r="G6" t="n">
-        <v>112813.3285840583</v>
+        <v>231548.5130161721</v>
       </c>
       <c r="H6" t="n">
         <v>231548.5130161723</v>
@@ -26543,25 +26545,25 @@
         <v>231548.5130161722</v>
       </c>
       <c r="J6" t="n">
-        <v>39936.00984581932</v>
+        <v>94953.71221027749</v>
       </c>
       <c r="K6" t="n">
         <v>231548.5130161722</v>
       </c>
       <c r="L6" t="n">
-        <v>231548.5130161722</v>
+        <v>91549.20215141907</v>
       </c>
       <c r="M6" t="n">
-        <v>231548.5130161722</v>
+        <v>209039.248242125</v>
       </c>
       <c r="N6" t="n">
         <v>231548.5130161722</v>
       </c>
       <c r="O6" t="n">
-        <v>188107.2343508842</v>
+        <v>231548.5130161723</v>
       </c>
       <c r="P6" t="n">
-        <v>188107.2343508842</v>
+        <v>231548.5130161722</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.221568342111</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>145.9790534949686</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>325.0512742795696</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27430,19 +27432,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.9995445696336</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>126.9450269688243</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>375.6394014840765</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27673,16 +27675,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>248.893475108163</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27788,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>231.8260188453086</v>
+        <v>56.21808542220074</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>345.4189188920404</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>184.6134679555821</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>34.29020285035992</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>234.6927169691258</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>127.3488673499967</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="P3" t="n">
-        <v>206.6440932097374</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="M5" t="n">
-        <v>73.83133071807789</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>56.37282568464934</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>634.7430680565489</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>176.8525848279889</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35428,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>263.0088597904602</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>219.2434151791322</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>540.7575733777301</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>120.947516057361</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36449,10 +36451,10 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>333.1858818629449</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37160,10 +37162,10 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>333.1858818629449</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>491.2320453030855</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>521.031676275702</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>176.1288133605725</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38017,19 +38019,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>278.4654425060751</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>45.75570536069313</v>
+        <v>334.9489582841759</v>
       </c>
       <c r="O45" t="n">
         <v>711.0677682281761</v>
@@ -38117,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1302351.922593807</v>
+        <v>1301039.277138226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>260.0442912848939</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.88208026001726</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>42.43741174507632</v>
+        <v>119.5236191444598</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -913,10 +913,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>87.9139625705677</v>
       </c>
       <c r="X5" t="n">
-        <v>147.743488744574</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>148.821905295516</v>
       </c>
       <c r="V7" t="n">
-        <v>214.9288021876725</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>254.7615058326182</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>161.725711161302</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.532506479744</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>91.04473440253275</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>208.642724780751</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>177.0054434986741</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>275.2111894009903</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>187.1291969431396</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>39.64108301376439</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1909,7 +1909,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>18.68597003888456</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>17.17164393875213</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2058,16 +2058,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>304.7162152260364</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.45986779485281</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>77.72590661309994</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2335,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>304.7162152260363</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>53.20093248929926</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>93.86998482510118</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>220.9263373332098</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256822</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>80.80290745712078</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>33.74095660611479</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.73179601342657</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3088,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3192,22 +3192,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>4.031544062375542</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>148.7454954850361</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3325,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>123.2715627317515</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3438,13 +3438,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>76.50187316108705</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>220.2647746254037</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>373.7360322130632</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3562,10 +3562,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3666,22 +3666,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>95.54331465629893</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>39.64108301376439</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>351.080144279057</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>95.64534543336244</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>106.9706214097034</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W44" t="n">
-        <v>157.4229911737221</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128.7560630900389</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>133.341502183296</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.867021802876</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C2" t="n">
-        <v>1597.196020505003</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D2" t="n">
-        <v>1596.772494638468</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.432279155364</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,16 +4330,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
         <v>1209.69369432892</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1866.047797426961</v>
+        <v>2086.353190308368</v>
       </c>
       <c r="W2" t="n">
-        <v>1866.047797426961</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="X2" t="n">
-        <v>1866.047797426961</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="Y2" t="n">
-        <v>1866.047797426961</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4406,31 +4406,31 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.227134123859</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.63115809937611</v>
+        <v>162.4960140583493</v>
       </c>
       <c r="C4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.365834796576</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>1014.480089736098</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>735.4104252449724</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X4" t="n">
-        <v>497.0665631046558</v>
+        <v>350.1957204523937</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.3308644934205</v>
+        <v>350.1957204523937</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1199.239803110925</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C5" t="n">
-        <v>1193.155616464599</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D5" t="n">
-        <v>1192.732090598063</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.432279155364</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>216.5644706858345</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>733.4074053521598</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O5" t="n">
         <v>1767.09327468481</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>1354.656425951752</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="X5" t="n">
-        <v>1205.42057873501</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1205.42057873501</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L6" t="n">
-        <v>704.7239474634679</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129793</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>643.1477172234552</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>643.1477172234552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>483.6530725463652</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1420.838825386294</v>
       </c>
       <c r="V7" t="n">
-        <v>560.0528091390199</v>
+        <v>1146.953080325816</v>
       </c>
       <c r="W7" t="n">
-        <v>560.0528091390199</v>
+        <v>867.8834158346905</v>
       </c>
       <c r="X7" t="n">
-        <v>560.0528091390199</v>
+        <v>867.8834158346905</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.0528091390199</v>
+        <v>643.1477172234552</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>2402.040012074004</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1991.915421387274</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1587.451491480334</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>1173.111275997231</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297456</v>
+        <v>752.0808639509187</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225778</v>
+        <v>343.3525798437508</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502957</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351232</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441627</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.954097856401</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2367.272688848155</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>3120.453705486773</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3764.084561903878</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883587</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678879</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368444</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368444</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368444</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4300.886273368444</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="V8" t="n">
-        <v>4137.526969165108</v>
+        <v>3593.561159445878</v>
       </c>
       <c r="W8" t="n">
-        <v>3753.766668300277</v>
+        <v>3209.800858581047</v>
       </c>
       <c r="X8" t="n">
-        <v>3353.12327046923</v>
+        <v>2809.157460749999</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2408.220787698089</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471287</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>278.8305830300021</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>734.6368392953009</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>1395.725011214589</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>1753.102937271256</v>
+        <v>1121.807663724569</v>
       </c>
       <c r="N9" t="n">
-        <v>1753.102937271256</v>
+        <v>1428.549830771974</v>
       </c>
       <c r="O9" t="n">
-        <v>1753.102937271256</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>1753.102937271256</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>909.3980746782881</v>
+        <v>1025.744120573962</v>
       </c>
       <c r="C10" t="n">
-        <v>738.3047022400046</v>
+        <v>854.6507481356784</v>
       </c>
       <c r="D10" t="n">
-        <v>578.8100575629147</v>
+        <v>695.1561034585884</v>
       </c>
       <c r="E10" t="n">
-        <v>417.8992424312342</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="F10" t="n">
-        <v>253.2681165418255</v>
+        <v>369.6141624374992</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736888</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736888</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1002748725794</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948174</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>514.549702874878</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>803.8137593153713</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1084.652541709622</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1344.213152036096</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
         <v>1549.888592285708</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="V10" t="n">
-        <v>1341.530877027741</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="W10" t="n">
-        <v>1062.461212536615</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="X10" t="n">
-        <v>1062.461212536615</v>
+        <v>1438.179525579242</v>
       </c>
       <c r="Y10" t="n">
-        <v>1062.461212536615</v>
+        <v>1213.443826968006</v>
       </c>
     </row>
     <row r="11">
@@ -5071,16 +5071,16 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V11" t="n">
-        <v>4144.752941388363</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X11" t="n">
         <v>3360.349242692484</v>
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N12" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1640.177868931084</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1017.908709896697</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="W13" t="n">
-        <v>1622.642594311473</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.012952997039</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>562.1177108836107</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
         <v>209.5897435862967</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>601.5758332719886</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>601.5758332719886</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>376.8401346607533</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2502.881125286859</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C17" t="n">
-        <v>2092.756534600129</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D17" t="n">
-        <v>1688.29260469319</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E17" t="n">
-        <v>1273.952389210086</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>852.921977163774</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>444.1936930566062</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>133.2851956843242</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>3314.038978003258</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2913.102304951348</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1914.095216421104</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.8642480873805</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="C19" t="n">
-        <v>870.8642480873805</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>387.8456536056056</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>226.9348384739251</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5706,19 +5706,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1109.208110227697</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1109.208110227697</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>870.8642480873805</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y19" t="n">
-        <v>870.8642480873805</v>
+        <v>547.3402982826956</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2459.725286714852</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C20" t="n">
-        <v>2049.600696028122</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D20" t="n">
-        <v>1645.136766121183</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E20" t="n">
-        <v>1230.796550638079</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F20" t="n">
-        <v>809.7661385917668</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G20" t="n">
-        <v>401.0378544845989</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674172</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4405.12439279065</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>4055.286838127131</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W20" t="n">
-        <v>3671.526537262299</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X20" t="n">
-        <v>3270.883139431251</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y20" t="n">
-        <v>2869.946466379341</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>828.6312213896092</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="C22" t="n">
-        <v>734.2273145261215</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="D22" t="n">
-        <v>574.7326698490315</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="E22" t="n">
-        <v>574.7326698490315</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>171.7547144715318</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="Y22" t="n">
-        <v>828.6312213896092</v>
+        <v>171.7547144715318</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.136766121183</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.796550638079</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F23" t="n">
-        <v>809.7661385917668</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G23" t="n">
-        <v>401.0378544845989</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H23" t="n">
-        <v>93.24369769062287</v>
+        <v>146.9820133363796</v>
       </c>
       <c r="I23" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1341.432659701382</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>1058.634512247506</v>
       </c>
       <c r="V25" t="n">
-        <v>554.7454763291312</v>
+        <v>784.7487671870281</v>
       </c>
       <c r="W25" t="n">
-        <v>331.5875598309394</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="X25" t="n">
-        <v>93.2436976906228</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.2436976906228</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.24369769062287</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.24369769062287</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
@@ -6262,16 +6262,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.4391700005397</v>
+        <v>757.1294022244522</v>
       </c>
       <c r="C28" t="n">
-        <v>402.3457975622561</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D28" t="n">
-        <v>242.8511528851661</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E28" t="n">
-        <v>242.8511528851661</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1269.359009425247</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>1269.359009425247</v>
       </c>
       <c r="V28" t="n">
-        <v>1503.288101637262</v>
+        <v>995.4732643647687</v>
       </c>
       <c r="W28" t="n">
-        <v>1224.218437146136</v>
+        <v>995.4732643647687</v>
       </c>
       <c r="X28" t="n">
-        <v>985.8745750058193</v>
+        <v>757.1294022244522</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.138876394584</v>
+        <v>757.1294022244522</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1230.796550638079</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>809.7661385917668</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>401.0378544845989</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6496,19 +6496,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6651,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
+        <v>490.5039577458317</v>
+      </c>
+      <c r="H32" t="n">
+        <v>179.5954603735497</v>
+      </c>
+      <c r="I32" t="n">
         <v>93.2436976906228</v>
-      </c>
-      <c r="H32" t="n">
-        <v>93.24369769062287</v>
-      </c>
-      <c r="I32" t="n">
-        <v>93.24369769062287</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4576.597211790305</v>
+        <v>4624.019917181994</v>
       </c>
       <c r="T32" t="n">
-        <v>4354.390727737164</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U32" t="n">
-        <v>4097.330235996674</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V32" t="n">
-        <v>3747.492681333154</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3363.732380468323</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3734.463987328199</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C34" t="n">
-        <v>3563.370614889915</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D34" t="n">
-        <v>3563.370614889915</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E34" t="n">
-        <v>3563.370614889915</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F34" t="n">
-        <v>3398.739489000507</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>4150.971659063151</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>4146.899392333478</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V34" t="n">
-        <v>4146.899392333478</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="W34" t="n">
-        <v>4146.899392333478</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="X34" t="n">
-        <v>4146.899392333478</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="Y34" t="n">
-        <v>3922.163693722243</v>
+        <v>1104.323753295587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N36" t="n">
         <v>1435.775802995229</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3788.915946046752</v>
+        <v>921.5084038336527</v>
       </c>
       <c r="C37" t="n">
-        <v>3617.822573608469</v>
+        <v>921.5084038336527</v>
       </c>
       <c r="D37" t="n">
-        <v>3458.327928931379</v>
+        <v>762.0137591565626</v>
       </c>
       <c r="E37" t="n">
-        <v>3297.417113799698</v>
+        <v>601.1029440248822</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>436.4718181354734</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V37" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W37" t="n">
-        <v>4439.695213192348</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X37" t="n">
-        <v>4201.351351052032</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="Y37" t="n">
-        <v>3976.615652440797</v>
+        <v>1109.208110227697</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.23772745581</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
         <v>1320.262653899312</v>
@@ -7177,49 +7177,49 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674161</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
-        <v>1598.180070079654</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M38" t="n">
-        <v>2374.498661071407</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N38" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.903809325239</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272098</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531608</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.799278868089</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003257</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.39558017221</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.4589071203</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4222.119838211426</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C40" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4576.912166206539</v>
+        <v>1526.134195668747</v>
       </c>
       <c r="U40" t="n">
-        <v>4576.912166206539</v>
+        <v>1243.336048214871</v>
       </c>
       <c r="V40" t="n">
-        <v>4576.912166206539</v>
+        <v>969.4503031543929</v>
       </c>
       <c r="W40" t="n">
-        <v>4576.912166206539</v>
+        <v>690.3806386632673</v>
       </c>
       <c r="X40" t="n">
-        <v>4576.912166206539</v>
+        <v>452.0367765229507</v>
       </c>
       <c r="Y40" t="n">
-        <v>4409.819544605471</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.881125286859</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2092.756534600129</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.29260469319</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1273.952389210086</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>852.921977163774</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>444.1936930566062</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>133.2851956843242</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7456,7 +7456,7 @@
         <v>3314.038978003258</v>
       </c>
       <c r="Y41" t="n">
-        <v>2913.102304951348</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1615.520903630173</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1615.520903630173</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.7425299376769</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="C43" t="n">
-        <v>413.6491574993933</v>
+        <v>189.8551577243222</v>
       </c>
       <c r="D43" t="n">
-        <v>254.1545128223033</v>
+        <v>189.8551577243222</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>189.8551577243222</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7596,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V43" t="n">
-        <v>1514.591461574399</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W43" t="n">
-        <v>1235.521797083273</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X43" t="n">
-        <v>997.1779349429565</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.4422363317212</v>
+        <v>360.9485301626057</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7660,13 +7660,13 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
         <v>4621.628238841575</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4269.84331758475</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1085.931338311245</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1182.57754799176</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.484175553476</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="D46" t="n">
-        <v>851.989530876386</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="E46" t="n">
-        <v>691.0787157447054</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>395.1824748088127</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>227.9320837343561</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W46" t="n">
-        <v>1537.369875986873</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X46" t="n">
-        <v>1537.369875986873</v>
+        <v>582.8821812028571</v>
       </c>
       <c r="Y46" t="n">
-        <v>1312.634177375637</v>
+        <v>582.8821812028571</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>528.0883472030761</v>
       </c>
       <c r="O3" t="n">
-        <v>395.7562197346342</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>272.0504334731806</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>70.59911775623679</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>743.321953824879</v>
+        <v>385.6728235830127</v>
       </c>
       <c r="P8" t="n">
-        <v>270.501948108873</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8534,28 +8534,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>418.5520878360603</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>363.0339661689073</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>558.8606699624394</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8929,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8938,7 +8938,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9257,16 +9257,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>282.1764805785802</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>387.4455168657486</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>387.4455168657486</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10904,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>230.3884483633763</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>388.1423516779259</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>222.4997066824603</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>187.994239071986</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>102.964722480663</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>1.067778445224064</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.84716204233317</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>139.2137281914345</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.8131706917625</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.08319717252283</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>75.92257091904784</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.38547402949797</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>32.28731256679831</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>143.2832668079637</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>55.35263051300453</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>62.56142803888758</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>156.3503441759441</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>237.4059310037585</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24736,7 +24736,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.19646844041357</v>
+        <v>96.14494677818598</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>275.9386219169616</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25143,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>73.74284614008687</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>89.07601400262496</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>56.01419322081068</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>32.28731256679936</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>141.609936976766</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>45.84716204233317</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>45.84716204233382</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>67.33946919715221</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25836,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>164.1762662001699</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W44" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.0666462400651</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>14.76987845930194</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>789032.8647970082</v>
+        <v>789032.8647970081</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710618.485181638</v>
+        <v>710618.4851816379</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710618.4851816379</v>
+        <v>710618.485181638</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710618.485181638</v>
+        <v>710618.4851816382</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>710618.4851816382</v>
+        <v>710618.4851816379</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>710618.4851816379</v>
+        <v>710618.4851816382</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710618.4851816382</v>
+        <v>710618.485181638</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811422</v>
+        <v>407205.9825811421</v>
       </c>
       <c r="C2" t="n">
-        <v>407205.9825811423</v>
+        <v>407205.9825811425</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811426</v>
+        <v>407205.9825811425</v>
       </c>
       <c r="E2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="F2" t="n">
+        <v>362060.8344188675</v>
+      </c>
+      <c r="G2" t="n">
+        <v>362060.8344188673</v>
+      </c>
+      <c r="H2" t="n">
         <v>362060.8344188674</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>362060.8344188674</v>
       </c>
-      <c r="H2" t="n">
-        <v>362060.8344188675</v>
-      </c>
-      <c r="I2" t="n">
-        <v>362060.8344188675</v>
-      </c>
       <c r="J2" t="n">
-        <v>362060.8344188677</v>
+        <v>362060.8344188672</v>
       </c>
       <c r="K2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="L2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="M2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188675</v>
       </c>
       <c r="N2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188672</v>
       </c>
       <c r="O2" t="n">
-        <v>362060.8344188676</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="P2" t="n">
         <v>362060.8344188674</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100689</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093387</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647531</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404713</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
-        <v>193745.821255793</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="D4" t="n">
-        <v>113911.0406229375</v>
+        <v>113911.0406229378</v>
       </c>
       <c r="E4" t="n">
         <v>59647.11115782197</v>
@@ -26432,13 +26432,13 @@
         <v>59647.11115782197</v>
       </c>
       <c r="G4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="H4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="I4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="J4" t="n">
         <v>59647.11115782197</v>
@@ -26447,19 +26447,19 @@
         <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="M4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="N4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="P4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520034</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26864.41364626252</v>
+        <v>-26864.41364626258</v>
       </c>
       <c r="C6" t="n">
         <v>148091.0962468518</v>
       </c>
       <c r="D6" t="n">
-        <v>22466.40169293591</v>
+        <v>22466.40169293602</v>
       </c>
       <c r="E6" t="n">
-        <v>204579.5588352383</v>
+        <v>204398.9782425888</v>
       </c>
       <c r="F6" t="n">
-        <v>231548.5130161721</v>
+        <v>231367.9324235231</v>
       </c>
       <c r="G6" t="n">
-        <v>231548.5130161721</v>
+        <v>231367.932423523</v>
       </c>
       <c r="H6" t="n">
-        <v>231548.5130161723</v>
+        <v>231367.932423523</v>
       </c>
       <c r="I6" t="n">
-        <v>231548.5130161722</v>
+        <v>231367.9324235231</v>
       </c>
       <c r="J6" t="n">
-        <v>94953.71221027749</v>
+        <v>94773.13161762786</v>
       </c>
       <c r="K6" t="n">
-        <v>231548.5130161722</v>
+        <v>231367.932423523</v>
       </c>
       <c r="L6" t="n">
-        <v>91549.20215141907</v>
+        <v>91368.62155877025</v>
       </c>
       <c r="M6" t="n">
-        <v>209039.248242125</v>
+        <v>208858.6676494757</v>
       </c>
       <c r="N6" t="n">
-        <v>231548.5130161722</v>
+        <v>231367.9324235229</v>
       </c>
       <c r="O6" t="n">
-        <v>231548.5130161723</v>
+        <v>231367.932423523</v>
       </c>
       <c r="P6" t="n">
-        <v>231548.5130161722</v>
+        <v>231367.932423523</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.221568342111</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>145.9790534949686</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27432,16 +27432,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>344.4570988568669</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>126.9450269688243</v>
+        <v>49.8588195694409</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27587,10 +27587,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>292.0087352856154</v>
       </c>
       <c r="X5" t="n">
-        <v>248.893475108163</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27794,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>131.148260683821</v>
       </c>
       <c r="V7" t="n">
-        <v>56.21808542220074</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>53.03790656594097</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>184.6134679555821</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.29020285035992</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28070,16 +28070,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>144.9156891163807</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>135.5987266329976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>474.8949538093261</v>
       </c>
       <c r="O3" t="n">
-        <v>338.0047407346341</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>176.5650354103358</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>650.1321781990958</v>
+        <v>292.4830479572296</v>
       </c>
       <c r="P8" t="n">
-        <v>176.8525848279889</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35254,28 +35254,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>360.9878040976428</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>309.8405727751573</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35424,13 +35424,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35658,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>227.9168455757764</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>333.1858818629449</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>333.1858818629449</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N39" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>176.1288133605725</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>334.9489582841759</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
